--- a/biology/Zoologie/Allancastria_caucasica/Allancastria_caucasica.xlsx
+++ b/biology/Zoologie/Allancastria_caucasica/Allancastria_caucasica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allancastria caucasica est une espèce de lépidoptères de la famille des Papilionidae et de la sous-famille des Parnassiinae.
 </t>
@@ -511,13 +523,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Allancastria caucasica a été décrite par l'entomologiste autrichien Julius Lederer en 1864[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Allancastria caucasica a été décrite par l'entomologiste autrichien Julius Lederer en 1864.
 Synonymes : 
-Zerynthia caucasica (Lederer, 1864)[2]
+Zerynthia caucasica (Lederer, 1864)
 Allancastria tkatschukovi Sheljuzhko, 1927
-Allancastria cachetica Sheljuzhko, 1927[3].</t>
+Allancastria cachetica Sheljuzhko, 1927.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d’Allancastria caucasica est un papillon de taille moyenne, au fond blanc ocré orné de marques brunes soulignées aux postérieures d'une ligne submaginale de points bleus doublée d'une ligne de points rouges.
 </t>
@@ -578,11 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénologie
-Il vole en une seule génération annuelle, d'avril à juin[3].
-L'hivernation se fait au stade de chrysalide[3].
-Plantes-hôtes
-Sa plante-hôte est Aristolochia iberica[1].
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération annuelle, d'avril à juin.
+L'hivernation se fait au stade de chrysalide.
 </t>
         </is>
       </c>
@@ -608,12 +627,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante-hôte est Aristolochia iberica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allancastria_caucasica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allancastria_caucasica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition comprend les rives de la mer Noire, en particulier le nord-est de la Turquie et la Géorgie[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition comprend les rives de la mer Noire, en particulier le nord-est de la Turquie et la Géorgie.
 </t>
         </is>
       </c>
